--- a/uploads/otherproducts.xlsx
+++ b/uploads/otherproducts.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="I3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
